--- a/doc/饭吧需求矩阵20141219.xlsx
+++ b/doc/饭吧需求矩阵20141219.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -40,59 +40,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>饭店投票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值提醒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总额管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会长权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通会员管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭店管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐日志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>午饭管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>饭店投票</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>余额管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值提醒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总额管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>会长权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通会员管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>饭店管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他活动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>午餐日志</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -144,57 +144,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -212,40 +167,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -555,7 +493,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -567,105 +505,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
